--- a/_INBOX/zoho/2026-02-02_Ongoing_Deals_Report_Filtered_for_Actions.xlsx
+++ b/_INBOX/zoho/2026-02-02_Ongoing_Deals_Report_Filtered_for_Actions.xlsx
@@ -556,7 +556,7 @@
     <row r="3">
       <c r="A3" s="7" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Generated by SSS Admin on Feb 1, 2026 09:00 PM</t>
+          <t xml:space="preserve">    Generated by SSS Admin on Jan 31, 2026 09:00 PM</t>
         </is>
       </c>
       <c r="B3" s="5"/>
